--- a/work breakdown.xlsx
+++ b/work breakdown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Wu\Desktop\College work\sdg-database-migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Wu\Desktop\College work\sdg\sdg-database-migration-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D657315-1B32-401C-9454-928B142E64FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D2D588-8833-4A40-99BB-B8668404A402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7FD9875C-3BD0-4C00-9D64-EBFC33032F5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Task number</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Duration (days)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>Implement login/logout</t>
+  </si>
+  <si>
+    <t>Set up login/logout management</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84976C5-82B8-46FF-A435-213CDF7533AB}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +493,11 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,10 +514,13 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -515,11 +537,14 @@
         <f>ROUND(DATEDIF(C2, D2, "d"), 0)</f>
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -533,304 +558,395 @@
         <v>44650</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E17" si="0">ROUND(DATEDIF(C3, D3, "d"), 0)</f>
+        <f t="shared" ref="E3:E19" si="0">ROUND(DATEDIF(C3, D3, "d"), 0)</f>
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="D4" s="1">
-        <v>44673</v>
+        <v>44664</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>44651</v>
       </c>
       <c r="D5" s="1">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1.4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44676</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44629</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44673</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>44629</v>
       </c>
       <c r="D7" s="1">
+        <v>44673</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D8" s="1">
         <v>44650</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>44651</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>44673</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44656</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44673</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="1">
         <v>44673</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44695</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44673</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44684</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3.2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44684</v>
       </c>
       <c r="D11" s="1">
         <v>44695</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44673</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44684</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44684</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44695</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44629</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44705</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44673</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44694</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4.2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>44629</v>
       </c>
       <c r="D14" s="1">
-        <v>44699</v>
+        <v>44705</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>44629</v>
+        <v>44673</v>
       </c>
       <c r="D15" s="1">
-        <v>44705</v>
+        <v>44694</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>44629</v>
       </c>
       <c r="D16" s="1">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>44694</v>
+        <v>44629</v>
       </c>
       <c r="D17" s="1">
         <v>44705</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44629</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44705</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44694</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44705</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" t="s">
         <v>7</v>
       </c>
     </row>

--- a/work breakdown.xlsx
+++ b/work breakdown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Wu\Desktop\College work\sdg\sdg-database-migration-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D2D588-8833-4A40-99BB-B8668404A402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9C9D3-2458-48AD-B55D-A7729F4142C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7FD9875C-3BD0-4C00-9D64-EBFC33032F5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Task number</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Set up login/logout management</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +496,7 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -586,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -610,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -634,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -658,7 +661,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -706,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -730,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -819,11 +822,11 @@
         <v>44629</v>
       </c>
       <c r="D14" s="1">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -843,11 +846,11 @@
         <v>44673</v>
       </c>
       <c r="D15" s="1">
-        <v>44694</v>
+        <v>44699</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
@@ -891,11 +894,11 @@
         <v>44629</v>
       </c>
       <c r="D17" s="1">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
@@ -915,11 +918,11 @@
         <v>44629</v>
       </c>
       <c r="D18" s="1">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -936,16 +939,18 @@
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>44694</v>
+        <v>44695</v>
       </c>
       <c r="D19" s="1">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
